--- a/medicine/Handicap/Syndrome_de_Lujan-Fryns/Syndrome_de_Lujan-Fryns.xlsx
+++ b/medicine/Handicap/Syndrome_de_Lujan-Fryns/Syndrome_de_Lujan-Fryns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Lujan-Fryns est une maladie génétique touchant principalement les hommes et se manifestant par un retard mental, un faciès caractéristique, un aspect physique proche du syndrome de Marfan et des troubles du comportement.
